--- a/src/test/resources/excel/testdata.xlsx
+++ b/src/test/resources/excel/testdata.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\eclipse-workspace\VlocityHomeTest\src\test\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E94363DE-8E9F-459C-A42B-2C69A7C0859B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2114B6FC-63B0-43BA-A4F6-79B355AC95F2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17205" windowHeight="5370" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17205" windowHeight="5370" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="test_suite" sheetId="3" r:id="rId1"/>
-    <sheet name="VerifyFeaturedLanguages" sheetId="4" r:id="rId2"/>
+    <sheet name="VerifyFeaturedLanguages(Not use" sheetId="4" r:id="rId2"/>
+    <sheet name="VerifyFeaturedLanguages" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="28">
   <si>
     <t>TCID</t>
   </si>
@@ -104,6 +105,12 @@
   </si>
   <si>
     <t>Polski</t>
+  </si>
+  <si>
+    <t>Language</t>
+  </si>
+  <si>
+    <t>Code</t>
   </si>
 </sst>
 </file>
@@ -470,8 +477,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -550,4 +557,107 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AAF0BE3-1CA2-49BB-AE4D-C452C3606E8F}">
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>